--- a/ViT_docs/Test scenario-ViT/result/No.2-질의창.xlsx
+++ b/ViT_docs/Test scenario-ViT/result/No.2-질의창.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\Test scenario-ViT\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\source\iitp\fork\visual-tool\ViT_docs\Test scenario-ViT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9D42B-8530-4D9B-BC3A-9CE962F91722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4C04C-FB8B-4666-AF90-3FED38112301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39240" yWindow="2400" windowWidth="15360" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>1, 관리기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,35 @@
   </si>
   <si>
     <t>* CM TEST-02 scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 질의 변환 - 정점 Label, Properties 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 질의 변환 - 간선 Label, Properties 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 질의 변환 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 질의 변환 - 연산자 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Label 콤보박스를 선택하여 데이터베이스 내에 Lable이 표시되는지 확인 한다.
+* Lable을 선택하여 Label에 속한 Properties가 표시되는지 확인 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Label과 Properties를 선택하여 연산자가 정상적으로 표시되는지 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 콤보 박스에 모든 옵션을 선택하여 실행 시 질의가 정상적으로 입력되는 지 확인 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,37 +535,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="86.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="89.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="20.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="86.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="89.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -563,7 +595,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -574,7 +606,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -585,7 +617,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -596,9 +628,53 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
+    <row r="9" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A5:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,12 +688,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,9 +710,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
